--- a/testsuite_telnyx.xlsx
+++ b/testsuite_telnyx.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Disk_D\TEST_QA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Disk_D\TEST_QA\23.09.24_cypress_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{849C1B41-CE29-4693-A08F-A32C7EEBDD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D286AB99-574F-45D6-87F1-8D10A5E6C712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{65BB1E8D-FC1F-4BFB-92E2-9B728838C214}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{65BB1E8D-FC1F-4BFB-92E2-9B728838C214}"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Expected Result</t>
   </si>
@@ -134,6 +135,94 @@
     <t>1. Відкрити браузер ;
 2. Перейти на https://telnyx.com; 
 3. Перевірити активність елементів:
+ 3. 1.Logo;
+ 3. 2. Products;
+ 3. 3. Solutions;
+ 3. 4. Pricing;
+ 3. 5. Why Telnyx;
+ 3. 6. Resources;
+ 3. 7. Developers;
+ 3. 8.Shop;
+ 3.9. Contact Us;
+ 3.10. Log In;
+ 3. 11. Sign Up;</t>
+  </si>
+  <si>
+    <t>Check Display of Navigation Panel Elements</t>
+  </si>
+  <si>
+    <t>Check Activity of Links on Navigation Panel</t>
+  </si>
+  <si>
+    <t>Check display of:  
+1.Logo;  
+2. Products; 
+3. Solutions; 
+4. Pricing; 
+5. Why Telnyx; 
+6. Resources; 
+7. Developers; 
+8.Shop;
+9. Contact Us; 
+10. Log In; 
+11. Sign Up;</t>
+  </si>
+  <si>
+    <t>User is on the main page  https://telnyx.com</t>
+  </si>
+  <si>
+    <t>Elements are displayed correctly</t>
+  </si>
+  <si>
+    <t>1.Open browser ;
+2. Go to https://telnyx.com; 
+3. Check for display presence:
+ 3. 1.Logo;
+ 3. 2. Products;
+ 3. 3. Solutions;
+ 3. 4. Pricing;
+ 3. 5. Why Telnyx;
+ 3. 6. Resources;
+ 3. 7. Developers;
+ 3. 8.Shop;
+ 3.9. Contact Us;
+ 3.10. Log In;
+ 3. 11. Sign Up;</t>
+  </si>
+  <si>
+    <t>Check activity of elements: 
+1. Logo;
+2. Products; 
+3. Solutions; 
+4. Pricing; 
+5. Why Telnyx; 
+6. Resources; 
+7. Developers; 
+8. Shop; 
+9. Contact Us; 
+10. Log In;
+11. Sign Up;</t>
+  </si>
+  <si>
+    <t>User is on the main page https://telnyx.com</t>
+  </si>
+  <si>
+    <t>1. Logo - link is active;
+2. Products - opens a submenu; 
+3. Solutions - link is active; 
+4. Pricing - opens a submenu; 
+5. Why Telnyx - opens a submenu; 
+6. Resources - opens a submenu;  
+7. Developers - opens a submenu; 
+8. Shop - link is active;
+9. Contact Us - link is active;
+10. Log In - link is activeе;
+11. Sign Up - link is active;</t>
+  </si>
+  <si>
+    <t>1. Open browser; 
+2. Go to https://telnyx.com; 
+3. Check activity of elements:
  3. 1.Logo;
  3. 2. Products;
  3. 3. Solutions;
@@ -534,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3249E3F-1463-465D-89AE-258F32BB99DA}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,4 +707,94 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BEDADF3-8687-434D-A3C7-F1B67BBC9909}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
+    <col min="5" max="5" width="37.6640625" customWidth="1"/>
+    <col min="6" max="6" width="32.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testsuite_telnyx.xlsx
+++ b/testsuite_telnyx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Disk_D\TEST_QA\23.09.24_cypress_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D286AB99-574F-45D6-87F1-8D10A5E6C712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2D4136-D138-4CEA-8186-C723EFAB2F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{65BB1E8D-FC1F-4BFB-92E2-9B728838C214}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{65BB1E8D-FC1F-4BFB-92E2-9B728838C214}"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>Expected Result</t>
   </si>
@@ -70,20 +70,6 @@
   </si>
   <si>
     <t>Користувач знаходиться на головній сторінці https://telnyx.com</t>
-  </si>
-  <si>
-    <t>Перевірка активності елементів: 
-1. Logo;
-2. Products; 
-3. Solutions; 
-4. Pricing; 
-5. Why Telnyx; 
-6. Resources; 
-7. Developers; 
-8. Shop; 
-9. Contact Us; 
-10. Log In;
-11. Sign Up;</t>
   </si>
   <si>
     <t>1. Logo - посилання активне;
@@ -235,12 +221,92 @@
  3.10. Log In;
  3. 11. Sign Up;</t>
   </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Перевірка форми Log In</t>
+  </si>
+  <si>
+    <t>Перевірка форми Sign Up</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Check Log In Form</t>
+  </si>
+  <si>
+    <t>Check Sign Up Form</t>
+  </si>
+  <si>
+    <t>Перевірка активності елементів: 
+1. Logo;
+2. Products; 
+3. Solutions; 
+4. Pricing; 
+5. Why Telnyx; 
+6. Resources; 
+7. Developers; 
+8.  Shop; 
+9. Contact Us; 
+10.  Log In;
+11. Sign Up;</t>
+  </si>
+  <si>
+    <t>Користувач знаходиться на головній сторінці https://telnyx.com в підменю 'Products'</t>
+  </si>
+  <si>
+    <t>Перевірка посилань в підменю 'Products'</t>
+  </si>
+  <si>
+    <t>Посилання активні:
+1. SMS API;
+2. IoT SIM Card; 
+3. Inference; 
+4. Global Numbers; 
+5. Voice API; 
+6. Cloud Storage; 
+7. See all products; 
+8.  SIP Trunking; 
+9. Microsoft Teams; 
+10.  WebRTC;</t>
+  </si>
+  <si>
+    <t>Перевірка активності елементів: 
+1. SMS API;
+2. IoT SIM Card; 
+3. Inference; 
+4. Global Numbers; 
+5. Voice API; 
+6. Cloud Storage; 
+7. See all products; 
+8.  SIP Trunking; 
+9. Microsoft Teams; 
+10.  WebRTC;</t>
+  </si>
+  <si>
+    <t>1. Відкрити браузер ;
+2. Перейти на https://telnyx.com; 
+3. Перейти в підменю 'Products'
+4. Перевірити активність посилань:
+ 4.1. SMS API;
+ 4.2. IoT SIM Card; 
+ 4.3. Inference; 
+ 4.4. Global Numbers; 
+ 4.5. Voice API; 
+ 4.6. Cloud Storage; 
+ 4.7. See all products; 
+ 4.8.  SIP Trunking; 
+ 4.9. Microsoft Teams; 
+ 4.10.  WebRTC;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,6 +321,13 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -621,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3249E3F-1463-465D-89AE-258F32BB99DA}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -665,16 +738,16 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
@@ -685,36 +758,70 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BEDADF3-8687-434D-A3C7-F1B67BBC9909}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,19 +859,19 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
@@ -772,28 +879,41 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testsuite_telnyx.xlsx
+++ b/testsuite_telnyx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Disk_D\TEST_QA\23.09.24_cypress_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2D4136-D138-4CEA-8186-C723EFAB2F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6365B7-63A8-4AE9-9E63-BA381F4E20D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{65BB1E8D-FC1F-4BFB-92E2-9B728838C214}"/>
   </bookViews>
@@ -697,7 +697,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/testsuite_telnyx.xlsx
+++ b/testsuite_telnyx.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ЦяКнига" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Disk_D\TEST_QA\23.09.24_cypress_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6365B7-63A8-4AE9-9E63-BA381F4E20D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA803A1B-15F9-421A-8C40-C87BD8274842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{65BB1E8D-FC1F-4BFB-92E2-9B728838C214}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{65BB1E8D-FC1F-4BFB-92E2-9B728838C214}"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>Expected Result</t>
   </si>
@@ -83,39 +83,6 @@
 9. Contact Us - посилання активне;
 10. Log In - посилання активне;
 11. Sign Up - посилання активне;</t>
-  </si>
-  <si>
-    <t>Елементи відображається правильно</t>
-  </si>
-  <si>
-    <t>Перевірка відображення:  
-1.Logo;  
-2. Products; 
-3. Solutions; 
-4. Pricing; 
-5. Why Telnyx; 
-6. Resources; 
-7. Developers; 
-8.Shop;
-9. Contact Us; 
-10. Log In; 
-11. Sign Up;</t>
-  </si>
-  <si>
-    <t>1. Відкрити браузер ;
-2. Перейти на https://telnyx.com; 
-3. Перевірити наявність відображення:
- 3. 1.Logo;
- 3. 2. Products;
- 3. 3. Solutions;
- 3. 4. Pricing;
- 3. 5. Why Telnyx;
- 3. 6. Resources;
- 3. 7. Developers;
- 3. 8.Shop;
- 3.9. Contact Us;
- 3.10. Log In;
- 3. 11. Sign Up;</t>
   </si>
   <si>
     <t>1. Відкрити браузер ;
@@ -134,9 +101,6 @@
  3. 11. Sign Up;</t>
   </si>
   <si>
-    <t>Check Display of Navigation Panel Elements</t>
-  </si>
-  <si>
     <t>Check Activity of Links on Navigation Panel</t>
   </si>
   <si>
@@ -158,22 +122,6 @@
   </si>
   <si>
     <t>Elements are displayed correctly</t>
-  </si>
-  <si>
-    <t>1.Open browser ;
-2. Go to https://telnyx.com; 
-3. Check for display presence:
- 3. 1.Logo;
- 3. 2. Products;
- 3. 3. Solutions;
- 3. 4. Pricing;
- 3. 5. Why Telnyx;
- 3. 6. Resources;
- 3. 7. Developers;
- 3. 8.Shop;
- 3.9. Contact Us;
- 3.10. Log In;
- 3. 11. Sign Up;</t>
   </si>
   <si>
     <t>Check activity of elements: 
@@ -260,6 +208,67 @@
     <t>Перевірка посилань в підменю 'Products'</t>
   </si>
   <si>
+    <t>Checking the links in the ‘Products’ submenu</t>
+  </si>
+  <si>
+    <t>User is on the main page https://telnyx.com in the ‘Products’ submenu</t>
+  </si>
+  <si>
+    <t>Checking the activity of elements:
+1. SMS API;
+2. IoT SIM Card; 
+3. Inference; 
+4. Global Numbers; 
+5. Voice API; 
+6. Cloud Storage; 
+7. See all products; 
+8.  SIP Trunking; 
+9. Microsoft Teams; 
+10.  WebRTC;</t>
+  </si>
+  <si>
+    <t>Links are active:
+1. SMS API;
+2. IoT SIM Card; 
+3. Inference; 
+4. Global Numbers; 
+5. Voice API; 
+6. Cloud Storage; 
+7. See all products; 
+8.  SIP Trunking; 
+9. Microsoft Teams; 
+10.  WebRTC;</t>
+  </si>
+  <si>
+    <t>Перевірка активності елементів: 
+1. SMS API;
+2. IoT SIM Card; 
+3. Inference; 
+4. Global Numbers; 
+5. Voice API; 
+6. Cloud Storage; 
+7. See all products; 
+8.  SIP Trunking; 
+9. Microsoft Teams; 
+10.  WebRTC;</t>
+  </si>
+  <si>
+    <t>1. Відкрити браузер ;
+2. Перейти на https://telnyx.com; 
+3. Перейти в підменю 'Products';
+4. Перевірити активність посилань:
+ 4.1. SMS API;
+ 4.2. IoT SIM Card; 
+ 4.3. Inference; 
+ 4.4. Global Numbers; 
+ 4.5. Voice API; 
+ 4.6. Cloud Storage; 
+ 4.7. See all products; 
+ 4.8.  SIP Trunking; 
+ 4.9. Microsoft Teams; 
+ 4.10.  WebRTC;</t>
+  </si>
+  <si>
     <t>Посилання активні:
 1. SMS API;
 2. IoT SIM Card; 
@@ -273,33 +282,111 @@
 10.  WebRTC;</t>
   </si>
   <si>
-    <t>Перевірка активності елементів: 
-1. SMS API;
-2. IoT SIM Card; 
-3. Inference; 
-4. Global Numbers; 
-5. Voice API; 
-6. Cloud Storage; 
-7. See all products; 
-8.  SIP Trunking; 
-9. Microsoft Teams; 
-10.  WebRTC;</t>
-  </si>
-  <si>
-    <t>1. Відкрити браузер ;
-2. Перейти на https://telnyx.com; 
-3. Перейти в підменю 'Products'
-4. Перевірити активність посилань:
- 4.1. SMS API;
- 4.2. IoT SIM Card; 
- 4.3. Inference; 
- 4.4. Global Numbers; 
- 4.5. Voice API; 
- 4.6. Cloud Storage; 
- 4.7. See all products; 
- 4.8.  SIP Trunking; 
- 4.9. Microsoft Teams; 
- 4.10.  WebRTC;</t>
+    <t>1. Open the browser;
+2. Go to https://telnyx.com;
+3. Navigate to the ‘Products’ submenu;
+4. Check the activity of the links: 
+ 4.1. SMS API ;
+ 4.2. IoT SIM Card ;
+ 4.3. Inference ;
+ 4.4. Global Numbers ;
+ 4.5. Voice API;
+ 4.6. Cloud Storage;
+ 4.7. See all products;
+ 4.8. SIP Trunking;
+ 4.9. Microsoft Teams;
+ 4.10. WebRTC</t>
+  </si>
+  <si>
+    <t>Check Display of Navigation Panel Elements (Full Screen)</t>
+  </si>
+  <si>
+    <t>Check Display of Navigation Panel Elements (non-Full Screen)</t>
+  </si>
+  <si>
+    <t>Перевірка відображення елементів навігаційної панелі  (Full Screen)</t>
+  </si>
+  <si>
+    <t>Елементи відображається правильно.</t>
+  </si>
+  <si>
+    <t>Перевірка відображення:  
+1.Logo;  
+2. Products; 
+3. Solutions; 
+4. Pricing; 
+5. Why Telnyx; 
+6. Resources; 
+7. Developers; 
+8.Shop;
+9. Contact Us; 
+10. Log In; 
+11. Sign Up;</t>
+  </si>
+  <si>
+    <t>1. Користувач знаходиться на головній сторінці https://telnyx.com/.
+2. Full-Screen 1920x1080</t>
+  </si>
+  <si>
+    <t>1. Користувач знаходиться на головній сторінці https://telnyx.com/.
+2. Full-Screen 12800x800</t>
+  </si>
+  <si>
+    <t>Check display of: 
+1.Logo;  
+2. Products; 
+3. Solutions; 
+4. Pricing; 
+5. Why Telnyx; 
+6. Resources; 
+7. Developers; 
+8.Shop;
+9. Contact Us; 
+10. Log In; 
+11. Sign Up;</t>
+  </si>
+  <si>
+    <t>1. User is on the main page  https://telnyx.com/.
+2. Full-Screen 1920x1080.</t>
+  </si>
+  <si>
+    <t>Elements are displayed correctly.</t>
+  </si>
+  <si>
+    <t>1. Відкрити браузер.
+2. Перейти на https://telnyx.com/.
+3. Встановити розштрення екрана 1920 х 1080 px.
+4. Перевірити наявність відображення header.
+5.Якщо header відображається, перевірити наявність відображення навігаційної панелі:
+ 5. 1.Logo;
+ 5. 2. Products;
+ 5. 3. Solutions;
+ 5. 4. Pricing;
+ 5. 5. Why Telnyx;
+ 5. 6. Resources;
+ 5. 7. Developers;
+ 5. 8.Shop;
+ 5.9. Contact Us;
+ 5.10. Log In;
+ 5. 11. Sign Up;</t>
+  </si>
+  <si>
+    <t>1. Open the browser.
+2. Go to https://telnyx.com/.
+3. Check for the display of the header.
+4. Set the screen resolution to 1920 x 1080 px.
+5. If the header is displayed, check for the display of the navigation panel elements: 
+ 5. 1.Logo;
+ 5. 2. Products;
+ 5. 3. Solutions;
+ 5. 4. Pricing;
+ 5. 5. Why Telnyx;
+ 5. 6. Resources;
+ 5. 7. Developers;
+ 5. 8.Shop;
+ 5.9. Contact Us;
+ 5.10. Log In;
+ 5. 11. Sign Up;</t>
   </si>
 </sst>
 </file>
@@ -694,20 +781,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3249E3F-1463-465D-89AE-258F32BB99DA}">
-  <dimension ref="A1:F7"/>
+  <sheetPr codeName="Аркуш1"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
-    <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" customWidth="1"/>
-    <col min="5" max="5" width="37.6640625" customWidth="1"/>
-    <col min="6" max="6" width="32.77734375" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="5" width="21.44140625" customWidth="1"/>
+    <col min="6" max="6" width="39.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -730,84 +817,98 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="216" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -818,20 +919,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BEDADF3-8687-434D-A3C7-F1B67BBC9909}">
-  <dimension ref="A1:F6"/>
+  <sheetPr codeName="Аркуш2"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.33203125" customWidth="1"/>
     <col min="2" max="2" width="21.44140625" customWidth="1"/>
-    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="21.44140625" customWidth="1"/>
-    <col min="5" max="5" width="37.6640625" customWidth="1"/>
-    <col min="6" max="6" width="32.77734375" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="37.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -854,67 +956,107 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>31</v>
-      </c>
     </row>
   </sheetData>
+  <dataConsolidate/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testsuite_telnyx.xlsx
+++ b/testsuite_telnyx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Disk_D\TEST_QA\23.09.24_cypress_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA803A1B-15F9-421A-8C40-C87BD8274842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3FE112-F7B7-4158-AC52-F2D61BC07FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{65BB1E8D-FC1F-4BFB-92E2-9B728838C214}"/>
   </bookViews>
@@ -324,14 +324,6 @@
 11. Sign Up;</t>
   </si>
   <si>
-    <t>1. Користувач знаходиться на головній сторінці https://telnyx.com/.
-2. Full-Screen 1920x1080</t>
-  </si>
-  <si>
-    <t>1. Користувач знаходиться на головній сторінці https://telnyx.com/.
-2. Full-Screen 12800x800</t>
-  </si>
-  <si>
     <t>Check display of: 
 1.Logo;  
 2. Products; 
@@ -387,6 +379,14 @@
  5.9. Contact Us;
  5.10. Log In;
  5. 11. Sign Up;</t>
+  </si>
+  <si>
+    <t>1. Користувач знаходиться на головній сторінці https://telnyx.com/.
+2. Full-Screen 1280x800.</t>
+  </si>
+  <si>
+    <t>1. Користувач знаходиться на головній сторінці https://telnyx.com/.
+2. Full-Screen 1920x1080.</t>
   </si>
 </sst>
 </file>
@@ -785,7 +785,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -828,16 +828,16 @@
         <v>42</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -846,12 +846,12 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -903,7 +903,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -923,7 +923,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -964,16 +964,16 @@
         <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
@@ -994,7 +994,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>

--- a/testsuite_telnyx.xlsx
+++ b/testsuite_telnyx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Disk_D\TEST_QA\23.09.24_cypress_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3FE112-F7B7-4158-AC52-F2D61BC07FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7937F022-617E-4B19-B167-C8DDC23FDF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{65BB1E8D-FC1F-4BFB-92E2-9B728838C214}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t>Expected Result</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Перевірка активності посилань на навігаційній панелі</t>
-  </si>
-  <si>
-    <t>Перевірка відображення елементів навігаційної панелі</t>
   </si>
   <si>
     <t>Користувач знаходиться на головній сторінці https://telnyx.com</t>
@@ -104,23 +101,6 @@
     <t>Check Activity of Links on Navigation Panel</t>
   </si>
   <si>
-    <t>Check display of:  
-1.Logo;  
-2. Products; 
-3. Solutions; 
-4. Pricing; 
-5. Why Telnyx; 
-6. Resources; 
-7. Developers; 
-8.Shop;
-9. Contact Us; 
-10. Log In; 
-11. Sign Up;</t>
-  </si>
-  <si>
-    <t>User is on the main page  https://telnyx.com</t>
-  </si>
-  <si>
     <t>Elements are displayed correctly</t>
   </si>
   <si>
@@ -345,9 +325,20 @@
     <t>Elements are displayed correctly.</t>
   </si>
   <si>
+    <t>1. Користувач знаходиться на головній сторінці https://telnyx.com/.
+2. Full-Screen 1280x800.</t>
+  </si>
+  <si>
+    <t>1. Користувач знаходиться на головній сторінці https://telnyx.com/.
+2. Full-Screen 1920x1080.</t>
+  </si>
+  <si>
+    <t>Перевірка відображення елементів навігаційної панелі (non-Full Screen)</t>
+  </si>
+  <si>
     <t>1. Відкрити браузер.
-2. Перейти на https://telnyx.com/.
-3. Встановити розштрення екрана 1920 х 1080 px.
+2. Встановити розштрення екрана 1920 х 1080 px.
+3. Перейти на https://telnyx.com/.
 4. Перевірити наявність відображення header.
 5.Якщо header відображається, перевірити наявність відображення навігаційної панелі:
  5. 1.Logo;
@@ -363,10 +354,44 @@
  5. 11. Sign Up;</t>
   </si>
   <si>
+    <t>Перевірка відображення:  
+1. Logo.
+2. Sign Up.
+3. Main menu.
+ 3.1. Products; 
+ 3.2. Solutions; 
+ 3.3. Pricing; 
+ 3.4. Why Telnyx; 
+ 3.5. Resources; 
+ 3.6. Developers; 
+ 3.7.Shop;
+ 3.8. Contact Us; 
+ 3.9. Log In;</t>
+  </si>
+  <si>
+    <t>Check display of:  
+1. Logo.
+2. Sign Up.
+3. Main menu.
+ 3.1. Products; 
+ 3.2. Solutions; 
+ 3.3. Pricing; 
+ 3.4. Why Telnyx; 
+ 3.5. Resources; 
+ 3.6. Developers; 
+ 3.7.Shop;
+ 3.8. Contact Us; 
+ 3.9. Log In;</t>
+  </si>
+  <si>
+    <t>1. User is on the main page  https://telnyx.com.
+2. Full-Screen 1280x800.</t>
+  </si>
+  <si>
     <t>1. Open the browser.
-2. Go to https://telnyx.com/.
-3. Check for the display of the header.
-4. Set the screen resolution to 1920 x 1080 px.
+2. Set the screen resolution to 1920 x 1080 px
+3. Go to https://telnyx.com/..
+4. Check for the display of the header.
 5. If the header is displayed, check for the display of the navigation panel elements: 
  5. 1.Logo;
  5. 2. Products;
@@ -381,12 +406,45 @@
  5. 11. Sign Up;</t>
   </si>
   <si>
-    <t>1. Користувач знаходиться на головній сторінці https://telnyx.com/.
-2. Full-Screen 1280x800.</t>
-  </si>
-  <si>
-    <t>1. Користувач знаходиться на головній сторінці https://telnyx.com/.
-2. Full-Screen 1920x1080.</t>
+    <t>1. Відкрити браузер.
+2. Встановити розширення екрана 1280 х 800 px.
+3. Перейти на https://telnyx.com/ .
+4. Перевірити наявність відображення header.
+5. Якщо header відображається, перевірити наявність відображення навігаційної панелі:
+ 5.1. Logo.
+ 5.2. Sign Up.
+ 5.3. Main menu. Якщо Main menu відображається, перевірити наявність відображення елеменетів в підменю :
+  5.3.1. Products; 
+  5.3.2. Solutions; 
+  5.3.3. Pricing; 
+  5.3.4. Why Telnyx; 
+  5.3.5. Resources; 
+  5.3.6. Developers; 
+  5.3.7.Shop;
+  5.3.8. Contact Us; 
+  5.3.9. Log In;</t>
+  </si>
+  <si>
+    <t>1. Open the browser.
+2. Set the screen resolution to 1280 x 800 px
+3. Go to https://telnyx.com/..
+4. Check for the display of the header.
+5. If the header is displayed, check for the display of the navigation panel elements: 
+ 5.1. Logo 
+ 5.2. Sign Up
+ 5.3. Main menu. If the Main menu is displayed, check the display of submenu elements: 
+  5.3.1. Products
+  5.3.2. Solutions
+  5.3.3. Pricing 
+  5.3.4. Why Telnyx 
+  5.3.5. Resources
+  5.3.6. Developers
+  5.3.7. Shop
+  5.3.8. Contact Us
+  5.3.9. Log In</t>
+  </si>
+  <si>
+    <t>05</t>
   </si>
 </sst>
 </file>
@@ -784,9 +842,7 @@
   <sheetPr codeName="Аркуш1"/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -817,39 +873,45 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="361.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -859,36 +921,36 @@
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -896,7 +958,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -905,10 +967,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -922,9 +984,7 @@
   <sheetPr codeName="Аркуш2"/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -932,8 +992,8 @@
     <col min="2" max="2" width="21.44140625" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="21.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="6" max="6" width="37.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.21875" customWidth="1"/>
+    <col min="6" max="6" width="40.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -956,82 +1016,84 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="375" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1039,7 +1101,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1048,10 +1110,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/testsuite_telnyx.xlsx
+++ b/testsuite_telnyx.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Disk_D\TEST_QA\23.09.24_cypress_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7937F022-617E-4B19-B167-C8DDC23FDF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF20BA6-B676-49B3-A849-7FEA45D02C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{65BB1E8D-FC1F-4BFB-92E2-9B728838C214}"/>
   </bookViews>
   <sheets>
-    <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="ukr" sheetId="1" r:id="rId1"/>
+    <sheet name="eng" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
   <si>
     <t>Expected Result</t>
   </si>
@@ -63,93 +63,9 @@
     <t>02</t>
   </si>
   <si>
-    <t>Перевірка активності посилань на навігаційній панелі</t>
-  </si>
-  <si>
-    <t>Користувач знаходиться на головній сторінці https://telnyx.com</t>
-  </si>
-  <si>
-    <t>1. Logo - посилання активне;
-2. Products - відкриває меню з вкладенням; 
-3. Solutions - посилання активне; 
-4. Pricing - відкриває меню з вкладенням; 
-5. Why Telnyx - відкриває меню з вкладенням; 
-6. Resources - відкриває меню з вкладенням;  
-7. Developers - відкриває меню з вкладенням; 
-8. Shop - посилання активне;
-9. Contact Us - посилання активне;
-10. Log In - посилання активне;
-11. Sign Up - посилання активне;</t>
-  </si>
-  <si>
-    <t>1. Відкрити браузер ;
-2. Перейти на https://telnyx.com; 
-3. Перевірити активність елементів:
- 3. 1.Logo;
- 3. 2. Products;
- 3. 3. Solutions;
- 3. 4. Pricing;
- 3. 5. Why Telnyx;
- 3. 6. Resources;
- 3. 7. Developers;
- 3. 8.Shop;
- 3.9. Contact Us;
- 3.10. Log In;
- 3. 11. Sign Up;</t>
-  </si>
-  <si>
-    <t>Check Activity of Links on Navigation Panel</t>
-  </si>
-  <si>
     <t>Elements are displayed correctly</t>
   </si>
   <si>
-    <t>Check activity of elements: 
-1. Logo;
-2. Products; 
-3. Solutions; 
-4. Pricing; 
-5. Why Telnyx; 
-6. Resources; 
-7. Developers; 
-8. Shop; 
-9. Contact Us; 
-10. Log In;
-11. Sign Up;</t>
-  </si>
-  <si>
-    <t>User is on the main page https://telnyx.com</t>
-  </si>
-  <si>
-    <t>1. Logo - link is active;
-2. Products - opens a submenu; 
-3. Solutions - link is active; 
-4. Pricing - opens a submenu; 
-5. Why Telnyx - opens a submenu; 
-6. Resources - opens a submenu;  
-7. Developers - opens a submenu; 
-8. Shop - link is active;
-9. Contact Us - link is active;
-10. Log In - link is activeе;
-11. Sign Up - link is active;</t>
-  </si>
-  <si>
-    <t>1. Open browser; 
-2. Go to https://telnyx.com; 
-3. Check activity of elements:
- 3. 1.Logo;
- 3. 2. Products;
- 3. 3. Solutions;
- 3. 4. Pricing;
- 3. 5. Why Telnyx;
- 3. 6. Resources;
- 3. 7. Developers;
- 3. 8.Shop;
- 3.9. Contact Us;
- 3.10. Log In;
- 3. 11. Sign Up;</t>
-  </si>
-  <si>
     <t>03</t>
   </si>
   <si>
@@ -166,20 +82,6 @@
   </si>
   <si>
     <t>Check Sign Up Form</t>
-  </si>
-  <si>
-    <t>Перевірка активності елементів: 
-1. Logo;
-2. Products; 
-3. Solutions; 
-4. Pricing; 
-5. Why Telnyx; 
-6. Resources; 
-7. Developers; 
-8.  Shop; 
-9. Contact Us; 
-10.  Log In;
-11. Sign Up;</t>
   </si>
   <si>
     <t>Користувач знаходиться на головній сторінці https://telnyx.com в підменю 'Products'</t>
@@ -318,19 +220,7 @@
 11. Sign Up;</t>
   </si>
   <si>
-    <t>1. User is on the main page  https://telnyx.com/.
-2. Full-Screen 1920x1080.</t>
-  </si>
-  <si>
     <t>Elements are displayed correctly.</t>
-  </si>
-  <si>
-    <t>1. Користувач знаходиться на головній сторінці https://telnyx.com/.
-2. Full-Screen 1280x800.</t>
-  </si>
-  <si>
-    <t>1. Користувач знаходиться на головній сторінці https://telnyx.com/.
-2. Full-Screen 1920x1080.</t>
   </si>
   <si>
     <t>Перевірка відображення елементів навігаційної панелі (non-Full Screen)</t>
@@ -382,10 +272,6 @@
  3.7.Shop;
  3.8. Contact Us; 
  3.9. Log In;</t>
-  </si>
-  <si>
-    <t>1. User is on the main page  https://telnyx.com.
-2. Full-Screen 1280x800.</t>
   </si>
   <si>
     <t>1. Open the browser.
@@ -445,6 +331,164 @@
   </si>
   <si>
     <t>05</t>
+  </si>
+  <si>
+    <t>Перевірка активності Home Page на навігаційній панелі</t>
+  </si>
+  <si>
+    <t>Перевірка активності елемента  Logo (Home Page), перехід на сторінки по посиланням з навігаційної панелі, та перевірка повернення на Home Page.</t>
+  </si>
+  <si>
+    <t>Користувач повертається на головну сторінку</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checking the activity of the Home Page on the navigation panel	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checking the activity of the Logo (Home Page) element, navigating through links on the navigation panel, and verifying return to the Home Page.	</t>
+  </si>
+  <si>
+    <t>1. User is on the main page  https://telnyx.com.
+2. non-Full Screen 1280x800.</t>
+  </si>
+  <si>
+    <t>1. User is on the main page  https://telnyx.com/.
+2. Full Screen 1920x1080.</t>
+  </si>
+  <si>
+    <t>1. Користувач знаходиться на головній сторінці https://telnyx.com/.
+2. non-Full Screen 1280x800.</t>
+  </si>
+  <si>
+    <t>1. Користувач знаходиться на головній сторінці https://telnyx.com/.
+2. Full Screen 1920x1080.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user returns to the main page.	</t>
+  </si>
+  <si>
+    <t>Перевірка активності посилань на навігаційній панелі (Full Screen)</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>Перевірка активності елементів: 
+1. Products; 
+2. Solutions; 
+3. Pricing; 
+4. Why Telnyx; 
+5. Resources; 
+6. Developers; 
+7.  Shop; 
+8. Contact Us; 
+9.  Log In;
+10. Sign Up;</t>
+  </si>
+  <si>
+    <t>1. Products - відкриває меню з вкладенням; 
+2. Solutions - посилання активне; 
+3 Pricing - відкриває меню з вкладенням; 
+4. Why Telnyx - відкриває меню з вкладенням; 
+5. Resources - відкриває меню з вкладенням;  
+6. Developers - відкриває меню з вкладенням; 
+7. Shop - посилання активне;
+8. Contact Us - посилання активне;
+9. Log In - посилання активне;
+10. Sign Up - посилання активне;</t>
+  </si>
+  <si>
+    <t>Checking the activity of links on the navigation panel (Full Screen)</t>
+  </si>
+  <si>
+    <t>Checking the activity of elements:
+1. Products; 
+2. Solutions; 
+3. Pricing; 
+4. Why Telnyx; 
+5. Resources; 
+6. Developers; 
+7.  Shop; 
+8. Contact Us; 
+9.  Log In;
+10. Sign Up;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Products - opens a submenu; 
+2. Solutions - link is active; 
+3. Pricing - opens a submenu; 
+4. Why Telnyx - opens a submenu; 
+5. Resources - opens a submenu; 
+6. Developers - opens a submenu; 
+7. Shop - link is active; 
+8. Contact Us - link is active;
+9. Log In - link is active; 
+10. Sign Up - link is active;	</t>
+  </si>
+  <si>
+    <t>1. Відкрити браузер.
+2. Встановити розширення екрана 1920 х 1080 px.
+3. Перейти на https://telnyx.com/ .
+4. Здійснити переіхд на сторінку Products.
+5. Повернутись на головну сторінку за допомогою елемента Logo (Home Page).
+6. Здійснити переіхд на сторінку Solutions.
+7. Повернутись на головну сторінку за допомогою елемента Logo (Home Page).
+8. Здійснити переіхд на сторінку Pricing.
+9. Повернутись на головну сторінку за допомогою елемента Logo (Home Page).
+10. Здійснити переіхд на сторінку Why Telnyx.
+11. Повернутись на головну сторінку за допомогою елемента Logo (Home Page).
+12. Здійснити переіхд на сторінку Resources.
+13. Повернутись на головну сторінку за допомогою елемента Logo (Home Page).</t>
+  </si>
+  <si>
+    <t>1. Open the browser.
+2. Set the screen resolution to 1920 x 1080 px.
+3. Navigate to https://telnyx.com/.
+4. Navigate to the Products page.
+5. Return to the main page using the Logo (Home Page) element.
+6. Navigate to the Solutions page.
+7. Return to the main page using the Logo (Home Page) element.
+8. Navigate to the Pricing page.
+9. Return to the main page using the Logo (Home Page) element.
+10. Navigate to the Why Telnyx page.
+11. Return to the main page using the Logo (Home Page) element.
+12. Navigate to the Resources page.
+13. Return to the main page using the Logo (Home Page) element.</t>
+  </si>
+  <si>
+    <t>1. Open the browser.
+2. Set the screen resolution to 1920 x 1080 px.
+3. Navigate to https://telnyx.com/.
+4. Check the activity of elements:
+ 4.1. Products - click on the element, check for submenu;
+ 4.2. Solutions - click on the element, compare the expected URL;
+ 4.3. Pricing - click on the element, check for submenu;
+ 4.4. Why Telnyx - click on the element, check for submenu;
+ 4.5. Resources - click on the element, check for submenu;
+ 4.6. Developers - click on the element, check for submenu;
+ 4.7. Shop - click on the element, compare the expected URL;
+ 4.8. Contact Us - click on the element, compare the expected URL;
+ 4.9. Log In - click on the element, compare the expected URL;
+ 4.10. Sign Up - click on the element, compare the expected URL;</t>
+  </si>
+  <si>
+    <t>1. Відкрити браузер.
+2. Встановити розширення екрана 1920 х 1080 px.
+3. Перейти на https://telnyx.com/ .
+4. Перевірити активність елементів:
+ 4.1. Products - натиснути на елемент, перевірити наявність підменю; 
+ 4.2. Solutions - натиснути на елемент, порівняти очікуваний url; 
+ 4.3. Pricing - натиснути на елемент, перевірити наявність підменю; ;
+ 4.4. Why Telnyx - натиснути на елемент, перевірити наявність підменю; ;
+ 4.5. Resources - натиснути на елемент, перевірити наявність підменю;;
+ 4.6. Developers - натиснути на елемент, перевірити наявність підменю; ;
+ 4.7.  Shop - натиснути на елемент, порівняти очікуваний url; ; 
+ 4.8. Contact Us - натиснути на елемент, порівняти очікуваний url; ; 
+ 4.9.  Log In - натиснути на елемент, порівняти очікуваний url; ;
+ 4.10. Sign Up - натиснути на елемент, порівняти очікуваний url; ;</t>
   </si>
 </sst>
 </file>
@@ -476,12 +520,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -496,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -505,6 +555,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -840,9 +893,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3249E3F-1463-465D-89AE-258F32BB99DA}">
   <sheetPr codeName="Аркуш1"/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -873,104 +929,124 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="361.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="244.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -982,14 +1058,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BEDADF3-8687-434D-A3C7-F1B67BBC9909}">
   <sheetPr codeName="Аркуш2"/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="21.44140625" customWidth="1"/>
     <col min="5" max="5" width="21.21875" customWidth="1"/>
@@ -1016,104 +1094,124 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="375" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="D4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F5" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="278.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="244.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/testsuite_telnyx.xlsx
+++ b/testsuite_telnyx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Disk_D\TEST_QA\23.09.24_cypress_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF20BA6-B676-49B3-A849-7FEA45D02C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FF4C8A-7834-4A77-B682-128955DF72A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{65BB1E8D-FC1F-4BFB-92E2-9B728838C214}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{65BB1E8D-FC1F-4BFB-92E2-9B728838C214}"/>
   </bookViews>
   <sheets>
     <sheet name="ukr" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
   <si>
     <t>Expected Result</t>
   </si>
@@ -348,16 +348,8 @@
     <t xml:space="preserve">Checking the activity of the Logo (Home Page) element, navigating through links on the navigation panel, and verifying return to the Home Page.	</t>
   </si>
   <si>
-    <t>1. User is on the main page  https://telnyx.com.
-2. non-Full Screen 1280x800.</t>
-  </si>
-  <si>
     <t>1. User is on the main page  https://telnyx.com/.
 2. Full Screen 1920x1080.</t>
-  </si>
-  <si>
-    <t>1. Користувач знаходиться на головній сторінці https://telnyx.com/.
-2. non-Full Screen 1280x800.</t>
   </si>
   <si>
     <t>1. Користувач знаходиться на головній сторінці https://telnyx.com/.
@@ -489,6 +481,138 @@
  4.8. Contact Us - натиснути на елемент, порівняти очікуваний url; ; 
  4.9.  Log In - натиснути на елемент, порівняти очікуваний url; ;
  4.10. Sign Up - натиснути на елемент, порівняти очікуваний url; ;</t>
+  </si>
+  <si>
+    <t>Перевірка реєстрації SIGN UP з невірними даними</t>
+  </si>
+  <si>
+    <t>Тест перевіряє, що реєстрація з невірними даними не проходить і відображається відповідне повідомлення про помилку.</t>
+  </si>
+  <si>
+    <t>Повідомлення про помилку: “That email and password combination is not valid, or your browser could not be authenticated via recaptcha. Please try again.”</t>
+  </si>
+  <si>
+    <t>1. Відкрити браузер.
+2. Встановити роздільну здатність екрану на 1920 x 1080 пікселів.
+3. Перейти на https://telnyx.com/.
+4. Натиснути “Sign Up”.
+5. Ввести невірний email.
+6. Ввести “unreal first_name” у поле “First Name”.
+7. Ввести “unreal last_name” у поле “Last Name”.
+8. Ввести “123unreal_Password” у поле “Password”.
+9. Натиснути на чекбокс “Terms and Conditions”.
+10. Натиснути на чекбокс “Subscription Opt-In”.
+11. Натиснути кнопку “SIGN UP”.
+12. Перевірити, що відображається повідомлення про помилку.</t>
+  </si>
+  <si>
+    <t>Check Sign Up with Invalid Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This test verifies that registration with invalid data fails and displays the appropriate error message.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error message: “That email and password combination is not valid, or your browser could not be authenticated via recaptcha. Please try again.”	</t>
+  </si>
+  <si>
+    <t>1. Open the browser.
+2. Set the screen resolution to 1920 x 1080 pixels.
+3. Navigate to https://telnyx.com/.
+4. Click “Sign Up”.
+5. Enter an invalid email.
+6. Enter “unreal first_name” in the “First Name” field.
+7. Enter “unreal last_name” in the “Last Name” field.
+8. Enter “123unreal_Password” in the “Password” field.
+9. Click the “Terms and Conditions” checkbox.
+10. Click the “Subscription Opt-In” checkbox.
+11. Click the “SIGN UP” button.
+12. Verify that the error message is displayed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тест перевіряє, що реєстрація з валідними даними проходить успішно.	</t>
+  </si>
+  <si>
+    <t>1. Встановлена бібліотека faker.
+2. Встановлені Node.js та npm.</t>
+  </si>
+  <si>
+    <t>Успішна реєстрація без повідомлень про помилку.</t>
+  </si>
+  <si>
+    <t>1. Відкрити браузер.
+2. Встановити роздільну здатність екрану на 1920 x 1080 пікселів.
+3. Перейти на https://telnyx.com/.
+4. Натиснути “Sign Up”.
+5. Ввести валідний email.
+6. Ввести випадкове ім’я у поле “First Name” за допомогою faker.person.firstName().
+7. Ввести випадкове прізвище у поле “Last Name” за допомогою faker.person.lastName().
+8. Ввести “ValidPassword123!” у поле “Password”.
+9. Натиснути на чекбокс “Terms and Conditions”.
+10. Натиснути на чекбокс “Subscription Opt-In”.
+11. Натиснути кнопку “SIGN UP”.
+12. Перевірити, що реєстрація пройшла успішно.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Successful Sign Up Registration	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This test verifies that registration with valid data is successful.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. faker library is installed.
+2. Node.js and npm are installed.	</t>
+  </si>
+  <si>
+    <t>Successful registration without error messages.</t>
+  </si>
+  <si>
+    <t>1. Open the browser.
+2. Set the screen resolution to 1920 x 1080 pixels.
+3. Navigate to https://telnyx.com/.
+4. Click “Sign Up”.
+5. Enter a valid email.
+6. Enter a random first name in the “First Name” field using faker.person.firstName().
+7. Enter a random last name in the “Last Name” field using faker.person.lastName().
+8. Enter “ValidPassword123!” in the “Password” field.
+9. Click the “Terms and Conditions” checkbox.
+10. Click the “Subscription Opt-In” checkbox.
+11. Click the “SIGN UP” button.
+12. Verify that the registration is successful.</t>
+  </si>
+  <si>
+    <t>Перевірка реєстрації SIGN UP</t>
+  </si>
+  <si>
+    <t>Перевірка видимості футера після прокрутки</t>
+  </si>
+  <si>
+    <t>Тест перевіряє, чи є футер головної сторінки видимим після прокрутки до нього.</t>
+  </si>
+  <si>
+    <t>Футер повинен бути видимим після прокрутки до нього.</t>
+  </si>
+  <si>
+    <t>1. Відкрити браузер.
+2. Встановити роздільну здатність екрану на 1920 x 1080 пікселів.
+3. Перейти на https://telnyx.com/.
+4.  Прокрутити до футера.
+5.  Перевірити видимість.</t>
+  </si>
+  <si>
+    <t>Verify Footer Visibility After Scrolling</t>
+  </si>
+  <si>
+    <t>This test checks whether the footer of the main page is visible after scrolling down to it.</t>
+  </si>
+  <si>
+    <t>The footer should be visible after scrolling down to it.</t>
+  </si>
+  <si>
+    <t>1. Open the browser.
+2. Set the screen resolution to 1920 x 1080 pixels.
+3. Navigate to https://telnyx.com/.
+4. Scroll down to the footer.
+5. Verify the visibility of the footer.</t>
   </si>
 </sst>
 </file>
@@ -546,7 +670,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -557,6 +681,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -893,17 +1023,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3249E3F-1463-465D-89AE-258F32BB99DA}">
   <sheetPr codeName="Аркуш1"/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" customWidth="1"/>
     <col min="4" max="5" width="21.44140625" customWidth="1"/>
     <col min="6" max="6" width="39.109375" bestFit="1" customWidth="1"/>
@@ -939,9 +1069,7 @@
       <c r="C3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
         <v>28</v>
       </c>
@@ -959,9 +1087,7 @@
       <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
         <v>28</v>
       </c>
@@ -979,73 +1105,127 @@
       <c r="C5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="176.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="244.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="244.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1058,10 +1238,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BEDADF3-8687-434D-A3C7-F1B67BBC9909}">
   <sheetPr codeName="Аркуш2"/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1104,9 +1285,7 @@
       <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
         <v>31</v>
       </c>
@@ -1124,9 +1303,7 @@
       <c r="C4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1144,73 +1321,127 @@
       <c r="C5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="278.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="345.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="244.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="F9" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="244.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/testsuite_telnyx.xlsx
+++ b/testsuite_telnyx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Disk_D\TEST_QA\23.09.24_cypress_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FF4C8A-7834-4A77-B682-128955DF72A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1875CC-59FE-406E-A46C-EF92B327B4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{65BB1E8D-FC1F-4BFB-92E2-9B728838C214}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="106">
   <si>
     <t>Expected Result</t>
   </si>
@@ -613,6 +613,69 @@
 3. Navigate to https://telnyx.com/.
 4. Scroll down to the footer.
 5. Verify the visibility of the footer.</t>
+  </si>
+  <si>
+    <t>Перевірка відображення товарів в розділі Shop</t>
+  </si>
+  <si>
+    <t>Тест перевіряє, чи всі товари відображаються на сторінці “Shop”.</t>
+  </si>
+  <si>
+    <t>Всі товари відображаються коректно.</t>
+  </si>
+  <si>
+    <t>1. Відкрити браузер.
+2. Встановити роздільну здатність екрану на 1920 x 1080 пікселів.
+3. Перейти на https://shop.telnyx.com/.
+4. Перейти у вкладку https://shop.telnyx.com/collections/all.</t>
+  </si>
+  <si>
+    <t>Перевірка фільтрації товарів в розділі Shop</t>
+  </si>
+  <si>
+    <t>Перевірка сортування товарів в розділі Shop</t>
+  </si>
+  <si>
+    <t>Перевірка додавання товару до кошика в розділі Shop</t>
+  </si>
+  <si>
+    <t>Перевірити, чи працюють фільтри для товарів.</t>
+  </si>
+  <si>
+    <t>Фільтри працюють коректно, відображаються тільки відповідні товари.</t>
+  </si>
+  <si>
+    <t>Перевірити, чи працює сортування товарів.</t>
+  </si>
+  <si>
+    <t>Товари сортуються коректно.</t>
+  </si>
+  <si>
+    <t>Перевірити, чи можна додати товар до кошика.</t>
+  </si>
+  <si>
+    <t>Товар успішно додається до кошика.</t>
+  </si>
+  <si>
+    <t>Перевірка видалення товару з кошика</t>
+  </si>
+  <si>
+    <t>Перевірити, чи можна видалити товар з кошика.</t>
+  </si>
+  <si>
+    <t>Товар успішно видаляється з кошика.</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
 </sst>
 </file>
@@ -1023,11 +1086,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3249E3F-1463-465D-89AE-258F32BB99DA}">
   <sheetPr codeName="Аркуш1"/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1169,63 +1232,145 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="176.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:6" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="244.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="15" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1238,11 +1383,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BEDADF3-8687-434D-A3C7-F1B67BBC9909}">
   <sheetPr codeName="Аркуш2"/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD12"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1385,63 +1530,71 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="345.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="244.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/testsuite_telnyx.xlsx
+++ b/testsuite_telnyx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Disk_D\TEST_QA\23.09.24_cypress_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1875CC-59FE-406E-A46C-EF92B327B4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46833600-6510-4740-8AF7-760DF15C8958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{65BB1E8D-FC1F-4BFB-92E2-9B728838C214}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{65BB1E8D-FC1F-4BFB-92E2-9B728838C214}"/>
   </bookViews>
   <sheets>
     <sheet name="ukr" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="110">
   <si>
     <t>Expected Result</t>
   </si>
@@ -624,58 +624,99 @@
     <t>Всі товари відображаються коректно.</t>
   </si>
   <si>
+    <t>Перевірка фільтрації товарів в розділі Shop</t>
+  </si>
+  <si>
+    <t>Перевірка сортування товарів в розділі Shop</t>
+  </si>
+  <si>
+    <t>Перевірка додавання товару до кошика в розділі Shop</t>
+  </si>
+  <si>
+    <t>Перевірити, чи працюють фільтри для товарів.</t>
+  </si>
+  <si>
+    <t>Фільтри працюють коректно, відображаються тільки відповідні товари.</t>
+  </si>
+  <si>
+    <t>Перевірити, чи працює сортування товарів.</t>
+  </si>
+  <si>
+    <t>Товари сортуються коректно.</t>
+  </si>
+  <si>
+    <t>Перевірити, чи можна додати товар до кошика.</t>
+  </si>
+  <si>
+    <t>Товар успішно додається до кошика.</t>
+  </si>
+  <si>
+    <t>Перевірка видалення товару з кошика</t>
+  </si>
+  <si>
+    <t>Перевірити, чи можна видалити товар з кошика.</t>
+  </si>
+  <si>
+    <t>Товар успішно видаляється з кошика.</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>1. Відкрити браузер.
 2. Встановити роздільну здатність екрану на 1920 x 1080 пікселів.
 3. Перейти на https://shop.telnyx.com/.
-4. Перейти у вкладку https://shop.telnyx.com/collections/all.</t>
-  </si>
-  <si>
-    <t>Перевірка фільтрації товарів в розділі Shop</t>
-  </si>
-  <si>
-    <t>Перевірка сортування товарів в розділі Shop</t>
-  </si>
-  <si>
-    <t>Перевірка додавання товару до кошика в розділі Shop</t>
-  </si>
-  <si>
-    <t>Перевірити, чи працюють фільтри для товарів.</t>
-  </si>
-  <si>
-    <t>Фільтри працюють коректно, відображаються тільки відповідні товари.</t>
-  </si>
-  <si>
-    <t>Перевірити, чи працює сортування товарів.</t>
-  </si>
-  <si>
-    <t>Товари сортуються коректно.</t>
-  </si>
-  <si>
-    <t>Перевірити, чи можна додати товар до кошика.</t>
-  </si>
-  <si>
-    <t>Товар успішно додається до кошика.</t>
-  </si>
-  <si>
-    <t>Перевірка видалення товару з кошика</t>
-  </si>
-  <si>
-    <t>Перевірити, чи можна видалити товар з кошика.</t>
-  </si>
-  <si>
-    <t>Товар успішно видаляється з кошика.</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
+4. Перейти у вкладку https://shop.telnyx.com/collections/all.
+5. Перевірити чи відображається:
+5.1 Товар 1.
+5.2 Товар 2.
+5.3 Товар 3.
+5.4 Товар 4.
+5.5 Товар 5.
+5.6 Товар 6.
+5.7 Товар 7.
+5.8 Товар 8.
+5.9 Товар 9.
+5.10 Товар 10.
+5.11 Товар 11.
+5.12 Товар 12.</t>
+  </si>
+  <si>
+    <t>Verify Product Display in Shop Section</t>
+  </si>
+  <si>
+    <t>This test checks whether all products are displayed on the “Shop” page.</t>
+  </si>
+  <si>
+    <t>All products are displayed correctly.</t>
+  </si>
+  <si>
+    <t>1 Open the browser.
+2 Set the screen resolution to 1920 x 1080 pixels.
+3 Navigate to https://shop.telnyx.com/.
+4 Go to the tab https://shop.telnyx.com/collections/all.
+5 Verify the display of: 
+5.1 Product 1.
+ 5.2 Product 2.
+ 5.3 Product 3.
+ 5.4 Product 4.
+ 5.5 Product 5.
+ 5.6 Product 6.
+ 5.7 Product 7.
+ 5.8 Product 8. 
+ 5.9 Product 9. 
+ 5.10 Product 10.
+ 5.11 Product 11. 
+ 5.12 Product 12.</t>
   </si>
 </sst>
 </file>
@@ -1088,9 +1129,9 @@
   <sheetPr codeName="Аркуш1"/>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1214,7 +1255,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>49</v>
       </c>
@@ -1247,70 +1288,70 @@
         <v>88</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F13" s="6"/>
     </row>
@@ -1383,11 +1424,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BEDADF3-8687-434D-A3C7-F1B67BBC9909}">
   <sheetPr codeName="Аркуш2"/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1531,70 +1572,120 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="E9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/testsuite_telnyx.xlsx
+++ b/testsuite_telnyx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Disk_D\TEST_QA\23.09.24_cypress_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46833600-6510-4740-8AF7-760DF15C8958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD909938-58F1-4674-A8C3-21811105E93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{65BB1E8D-FC1F-4BFB-92E2-9B728838C214}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{65BB1E8D-FC1F-4BFB-92E2-9B728838C214}"/>
   </bookViews>
   <sheets>
     <sheet name="ukr" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="111">
   <si>
     <t>Expected Result</t>
   </si>
@@ -624,19 +624,10 @@
     <t>Всі товари відображаються коректно.</t>
   </si>
   <si>
-    <t>Перевірка фільтрації товарів в розділі Shop</t>
-  </si>
-  <si>
     <t>Перевірка сортування товарів в розділі Shop</t>
   </si>
   <si>
     <t>Перевірка додавання товару до кошика в розділі Shop</t>
-  </si>
-  <si>
-    <t>Перевірити, чи працюють фільтри для товарів.</t>
-  </si>
-  <si>
-    <t>Фільтри працюють коректно, відображаються тільки відповідні товари.</t>
   </si>
   <si>
     <t>Перевірити, чи працює сортування товарів.</t>
@@ -717,6 +708,28 @@
  5.10 Product 10.
  5.11 Product 11. 
  5.12 Product 12.</t>
+  </si>
+  <si>
+    <t>Перевірка фільтрації  'Availability' товарів в розділі Shop</t>
+  </si>
+  <si>
+    <t>Перевірити, чи працюють фільтри 'Availability' для товарів.</t>
+  </si>
+  <si>
+    <t>Фільтри 'Availability'  працюють коректно, відображаються тільки відповідні товари.</t>
+  </si>
+  <si>
+    <t>1. Відкрити браузер.
+2. Встановити роздільну здатність екрану на 1920 x 1080 пікселів.
+3. Перейти на https://shop.telnyx.com/.
+4. Перейти у вкладку https://shop.telnyx.com/collections/all.
+5. Увіти в меню фільтра  'Availability': 
+5.1 Натиснути checkbox 'In stock' для встановлення фільтрів 'In stock' ;
+5.2 Натиснути checkbox 'In stock' для скидання фільтрів 'In stock' ;
+5.3 Натиснути checkbox 'Out of stock' для встановлення фільтрів 'Out of stock' ;
+5.4 Натиснути checkbox 'Out of stock' для скидання фільтрів 'Out of stock' ;
+5.5 Натиснути checkbox 'In stock, натиснути checkbox 'Out of stock' для встановлення фільтрів 'Availability all' ;
+5.6 Натиснути checkbox 'In stock, натиснути checkbox 'Out of stock' для скидання фільтрів 'Availability all' ;</t>
   </si>
 </sst>
 </file>
@@ -1129,8 +1142,8 @@
   <sheetPr codeName="Аркуш1"/>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1288,70 +1301,72 @@
         <v>88</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="153" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="6"/>
+        <v>109</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F13" s="6"/>
     </row>
@@ -1426,7 +1441,7 @@
   <sheetPr codeName="Аркуш2"/>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
@@ -1576,22 +1591,22 @@
         <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1601,7 +1616,7 @@
     </row>
     <row r="11" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1611,7 +1626,7 @@
     </row>
     <row r="12" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1621,7 +1636,7 @@
     </row>
     <row r="13" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>

--- a/testsuite_telnyx.xlsx
+++ b/testsuite_telnyx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Disk_D\TEST_QA\23.09.24_cypress_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD909938-58F1-4674-A8C3-21811105E93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD654B1-78C7-4F6A-BC81-005631467051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{65BB1E8D-FC1F-4BFB-92E2-9B728838C214}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{65BB1E8D-FC1F-4BFB-92E2-9B728838C214}"/>
   </bookViews>
   <sheets>
     <sheet name="ukr" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="115">
   <si>
     <t>Expected Result</t>
   </si>
@@ -730,6 +730,28 @@
 5.4 Натиснути checkbox 'Out of stock' для скидання фільтрів 'Out of stock' ;
 5.5 Натиснути checkbox 'In stock, натиснути checkbox 'Out of stock' для встановлення фільтрів 'Availability all' ;
 5.6 Натиснути checkbox 'In stock, натиснути checkbox 'Out of stock' для скидання фільтрів 'Availability all' ;</t>
+  </si>
+  <si>
+    <t>Verify that the ‘Availability’ filters for products are working correctly.</t>
+  </si>
+  <si>
+    <t>The ‘Availability’ filters work correctly, displaying only the corresponding products.</t>
+  </si>
+  <si>
+    <t>Check ‘Availability’ Filter for Products in the Shop Section</t>
+  </si>
+  <si>
+    <t>1 Open the browser.
+2 Set the screen resolution to 1920 x 1080 pixels.
+3 Navigate to https://shop.telnyx.com/.
+4 Go to the tab https://shop.telnyx.com/collections/all.
+5.Enter the ‘Availability’ filter menu: 
+ 5.1 Click the ‘In stock’ checkbox to apply the ‘In stock’ filter.
+ 5.2 Click the ‘In stock’ checkbox again to reset the ‘In stock’ filter.
+ 5.3 Click the ‘Out of stock’ checkbox to apply the ‘Out of stock’ filter.
+ 5.4 Click the ‘Out of stock’ checkbox again to reset the ‘Out of stock’ filter.
+ 5.5 Click the ‘In stock’ checkbox, then click the ‘Out of stock’ checkbox to apply the ‘Availability all’ filter.
+ 5.6 Click the ‘In stock’ checkbox, then click the ‘Out of stock’ checkbox again to reset the ‘Availability all’ filter.</t>
   </si>
 </sst>
 </file>
@@ -1142,9 +1164,9 @@
   <sheetPr codeName="Аркуш1"/>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1441,9 +1463,9 @@
   <sheetPr codeName="Аркуш2"/>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1586,7 +1608,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>50</v>
       </c>
@@ -1608,11 +1630,19 @@
       <c r="A10" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="6"/>
+      <c r="E10" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">

--- a/testsuite_telnyx.xlsx
+++ b/testsuite_telnyx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Disk_D\TEST_QA\23.09.24_cypress_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD654B1-78C7-4F6A-BC81-005631467051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29466291-5718-4C3B-87C8-C5E134F23C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{65BB1E8D-FC1F-4BFB-92E2-9B728838C214}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="116">
   <si>
     <t>Expected Result</t>
   </si>
@@ -752,6 +752,9 @@
  5.4 Click the ‘Out of stock’ checkbox again to reset the ‘Out of stock’ filter.
  5.5 Click the ‘In stock’ checkbox, then click the ‘Out of stock’ checkbox to apply the ‘Availability all’ filter.
  5.6 Click the ‘In stock’ checkbox, then click the ‘Out of stock’ checkbox again to reset the ‘Availability all’ filter.</t>
+  </si>
+  <si>
+    <t>Checking the Addition of a Product to the Cart in the Shop Section</t>
   </si>
 </sst>
 </file>
@@ -1166,7 +1169,7 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1464,8 +1467,8 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1658,7 +1661,9 @@
       <c r="A12" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>

--- a/testsuite_telnyx.xlsx
+++ b/testsuite_telnyx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Disk_D\TEST_QA\23.09.24_cypress_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29466291-5718-4C3B-87C8-C5E134F23C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819152A1-E5E4-4843-9336-13389A0CC773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{65BB1E8D-FC1F-4BFB-92E2-9B728838C214}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{65BB1E8D-FC1F-4BFB-92E2-9B728838C214}"/>
   </bookViews>
   <sheets>
     <sheet name="ukr" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="117">
   <si>
     <t>Expected Result</t>
   </si>
@@ -624,33 +624,6 @@
     <t>Всі товари відображаються коректно.</t>
   </si>
   <si>
-    <t>Перевірка сортування товарів в розділі Shop</t>
-  </si>
-  <si>
-    <t>Перевірка додавання товару до кошика в розділі Shop</t>
-  </si>
-  <si>
-    <t>Перевірити, чи працює сортування товарів.</t>
-  </si>
-  <si>
-    <t>Товари сортуються коректно.</t>
-  </si>
-  <si>
-    <t>Перевірити, чи можна додати товар до кошика.</t>
-  </si>
-  <si>
-    <t>Товар успішно додається до кошика.</t>
-  </si>
-  <si>
-    <t>Перевірка видалення товару з кошика</t>
-  </si>
-  <si>
-    <t>Перевірити, чи можна видалити товар з кошика.</t>
-  </si>
-  <si>
-    <t>Товар успішно видаляється з кошика.</t>
-  </si>
-  <si>
     <t>08</t>
   </si>
   <si>
@@ -754,7 +727,46 @@
  5.6 Click the ‘In stock’ checkbox, then click the ‘Out of stock’ checkbox again to reset the ‘Availability all’ filter.</t>
   </si>
   <si>
-    <t>Checking the Addition of a Product to the Cart in the Shop Section</t>
+    <t>Перевірка додавання та видалення товарів з кошика в розділі Shop</t>
+  </si>
+  <si>
+    <t>Товар успішно додається до кошика та видаляється з кошика.</t>
+  </si>
+  <si>
+    <t>Перевірити, чи можна додати товар до кошика та видалити з кошика.</t>
+  </si>
+  <si>
+    <t>Checking the Addition of a Product to the Cart and Removal of a Product from the Cart in the Shop Section</t>
+  </si>
+  <si>
+    <t>Перевірка оформлення замовлення в розділі Shop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тест перевіряє, що оформлення замовлення що реєстрація з валідними даними проходить успішно.	</t>
+  </si>
+  <si>
+    <t>Успішне замовлення без повідомлень про помилку.</t>
+  </si>
+  <si>
+    <t>Перевірка активності посилань на соціальні мережі та перевірка їх url</t>
+  </si>
+  <si>
+    <t>Перевіріти , чи є активними посилання на соціальні мережі та перевірити їх адреси</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Посилання  коректно, адреси активні </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Відкрити браузер.
+2. Встановити роздільну здатність екрану на 1920 x 1080 пікселів.
+3. Перейти на https://telnyx.com/.
+4. Перейти за посиланням на соціальну мережу 'x.com'.
+5. Перевірити, відповідність сторінки що відкрилась.
+6. Перейти за посиланням на соціальну мережу 'lnkedin.com'.
+7. Перевірити, відповідність сторінки що відкрилась.
+8. Перейти за посиланням на соціальну мережу 'facebook.com'.
+9. Перевірити, відповідність сторінки що відкрилась.
+</t>
   </si>
 </sst>
 </file>
@@ -1165,11 +1177,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3249E3F-1463-465D-89AE-258F32BB99DA}">
   <sheetPr codeName="Аркуш1"/>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1201,7 +1213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1311,147 +1323,157 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="153" customHeight="1" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="153" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:6" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1466,9 +1488,9 @@
   <sheetPr codeName="Аркуш2"/>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1611,58 +1633,58 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>104</v>
-      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="2"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="6"/>
+      <c r="E11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1671,7 +1693,7 @@
     </row>
     <row r="13" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>

--- a/testsuite_telnyx.xlsx
+++ b/testsuite_telnyx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Disk_D\TEST_QA\23.09.24_cypress_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819152A1-E5E4-4843-9336-13389A0CC773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42987EB1-2E98-4CE2-A143-20C609330CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{65BB1E8D-FC1F-4BFB-92E2-9B728838C214}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="99">
   <si>
     <t>Expected Result</t>
   </si>
@@ -69,115 +69,7 @@
     <t>03</t>
   </si>
   <si>
-    <t>Перевірка форми Log In</t>
-  </si>
-  <si>
-    <t>Перевірка форми Sign Up</t>
-  </si>
-  <si>
     <t>04</t>
-  </si>
-  <si>
-    <t>Check Log In Form</t>
-  </si>
-  <si>
-    <t>Check Sign Up Form</t>
-  </si>
-  <si>
-    <t>Користувач знаходиться на головній сторінці https://telnyx.com в підменю 'Products'</t>
-  </si>
-  <si>
-    <t>Перевірка посилань в підменю 'Products'</t>
-  </si>
-  <si>
-    <t>Checking the links in the ‘Products’ submenu</t>
-  </si>
-  <si>
-    <t>User is on the main page https://telnyx.com in the ‘Products’ submenu</t>
-  </si>
-  <si>
-    <t>Checking the activity of elements:
-1. SMS API;
-2. IoT SIM Card; 
-3. Inference; 
-4. Global Numbers; 
-5. Voice API; 
-6. Cloud Storage; 
-7. See all products; 
-8.  SIP Trunking; 
-9. Microsoft Teams; 
-10.  WebRTC;</t>
-  </si>
-  <si>
-    <t>Links are active:
-1. SMS API;
-2. IoT SIM Card; 
-3. Inference; 
-4. Global Numbers; 
-5. Voice API; 
-6. Cloud Storage; 
-7. See all products; 
-8.  SIP Trunking; 
-9. Microsoft Teams; 
-10.  WebRTC;</t>
-  </si>
-  <si>
-    <t>Перевірка активності елементів: 
-1. SMS API;
-2. IoT SIM Card; 
-3. Inference; 
-4. Global Numbers; 
-5. Voice API; 
-6. Cloud Storage; 
-7. See all products; 
-8.  SIP Trunking; 
-9. Microsoft Teams; 
-10.  WebRTC;</t>
-  </si>
-  <si>
-    <t>1. Відкрити браузер ;
-2. Перейти на https://telnyx.com; 
-3. Перейти в підменю 'Products';
-4. Перевірити активність посилань:
- 4.1. SMS API;
- 4.2. IoT SIM Card; 
- 4.3. Inference; 
- 4.4. Global Numbers; 
- 4.5. Voice API; 
- 4.6. Cloud Storage; 
- 4.7. See all products; 
- 4.8.  SIP Trunking; 
- 4.9. Microsoft Teams; 
- 4.10.  WebRTC;</t>
-  </si>
-  <si>
-    <t>Посилання активні:
-1. SMS API;
-2. IoT SIM Card; 
-3. Inference; 
-4. Global Numbers; 
-5. Voice API; 
-6. Cloud Storage; 
-7. See all products; 
-8.  SIP Trunking; 
-9. Microsoft Teams; 
-10.  WebRTC;</t>
-  </si>
-  <si>
-    <t>1. Open the browser;
-2. Go to https://telnyx.com;
-3. Navigate to the ‘Products’ submenu;
-4. Check the activity of the links: 
- 4.1. SMS API ;
- 4.2. IoT SIM Card ;
- 4.3. Inference ;
- 4.4. Global Numbers ;
- 4.5. Voice API;
- 4.6. Cloud Storage;
- 4.7. See all products;
- 4.8. SIP Trunking;
- 4.9. Microsoft Teams;
- 4.10. WebRTC</t>
   </si>
   <si>
     <t>Check Display of Navigation Panel Elements (Full Screen)</t>
@@ -348,77 +240,13 @@
     <t xml:space="preserve">Checking the activity of the Logo (Home Page) element, navigating through links on the navigation panel, and verifying return to the Home Page.	</t>
   </si>
   <si>
-    <t>1. User is on the main page  https://telnyx.com/.
-2. Full Screen 1920x1080.</t>
-  </si>
-  <si>
-    <t>1. Користувач знаходиться на головній сторінці https://telnyx.com/.
-2. Full Screen 1920x1080.</t>
-  </si>
-  <si>
     <t xml:space="preserve">The user returns to the main page.	</t>
   </si>
   <si>
-    <t>Перевірка активності посилань на навігаційній панелі (Full Screen)</t>
-  </si>
-  <si>
     <t>06</t>
   </si>
   <si>
     <t>07</t>
-  </si>
-  <si>
-    <t>Перевірка активності елементів: 
-1. Products; 
-2. Solutions; 
-3. Pricing; 
-4. Why Telnyx; 
-5. Resources; 
-6. Developers; 
-7.  Shop; 
-8. Contact Us; 
-9.  Log In;
-10. Sign Up;</t>
-  </si>
-  <si>
-    <t>1. Products - відкриває меню з вкладенням; 
-2. Solutions - посилання активне; 
-3 Pricing - відкриває меню з вкладенням; 
-4. Why Telnyx - відкриває меню з вкладенням; 
-5. Resources - відкриває меню з вкладенням;  
-6. Developers - відкриває меню з вкладенням; 
-7. Shop - посилання активне;
-8. Contact Us - посилання активне;
-9. Log In - посилання активне;
-10. Sign Up - посилання активне;</t>
-  </si>
-  <si>
-    <t>Checking the activity of links on the navigation panel (Full Screen)</t>
-  </si>
-  <si>
-    <t>Checking the activity of elements:
-1. Products; 
-2. Solutions; 
-3. Pricing; 
-4. Why Telnyx; 
-5. Resources; 
-6. Developers; 
-7.  Shop; 
-8. Contact Us; 
-9.  Log In;
-10. Sign Up;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Products - opens a submenu; 
-2. Solutions - link is active; 
-3. Pricing - opens a submenu; 
-4. Why Telnyx - opens a submenu; 
-5. Resources - opens a submenu; 
-6. Developers - opens a submenu; 
-7. Shop - link is active; 
-8. Contact Us - link is active;
-9. Log In - link is active; 
-10. Sign Up - link is active;	</t>
   </si>
   <si>
     <t>1. Відкрити браузер.
@@ -449,38 +277,6 @@
 11. Return to the main page using the Logo (Home Page) element.
 12. Navigate to the Resources page.
 13. Return to the main page using the Logo (Home Page) element.</t>
-  </si>
-  <si>
-    <t>1. Open the browser.
-2. Set the screen resolution to 1920 x 1080 px.
-3. Navigate to https://telnyx.com/.
-4. Check the activity of elements:
- 4.1. Products - click on the element, check for submenu;
- 4.2. Solutions - click on the element, compare the expected URL;
- 4.3. Pricing - click on the element, check for submenu;
- 4.4. Why Telnyx - click on the element, check for submenu;
- 4.5. Resources - click on the element, check for submenu;
- 4.6. Developers - click on the element, check for submenu;
- 4.7. Shop - click on the element, compare the expected URL;
- 4.8. Contact Us - click on the element, compare the expected URL;
- 4.9. Log In - click on the element, compare the expected URL;
- 4.10. Sign Up - click on the element, compare the expected URL;</t>
-  </si>
-  <si>
-    <t>1. Відкрити браузер.
-2. Встановити розширення екрана 1920 х 1080 px.
-3. Перейти на https://telnyx.com/ .
-4. Перевірити активність елементів:
- 4.1. Products - натиснути на елемент, перевірити наявність підменю; 
- 4.2. Solutions - натиснути на елемент, порівняти очікуваний url; 
- 4.3. Pricing - натиснути на елемент, перевірити наявність підменю; ;
- 4.4. Why Telnyx - натиснути на елемент, перевірити наявність підменю; ;
- 4.5. Resources - натиснути на елемент, перевірити наявність підменю;;
- 4.6. Developers - натиснути на елемент, перевірити наявність підменю; ;
- 4.7.  Shop - натиснути на елемент, порівняти очікуваний url; ; 
- 4.8. Contact Us - натиснути на елемент, порівняти очікуваний url; ; 
- 4.9.  Log In - натиснути на елемент, порівняти очікуваний url; ;
- 4.10. Sign Up - натиснути на елемент, порівняти очікуваний url; ;</t>
   </si>
   <si>
     <t>Перевірка реєстрації SIGN UP з невірними даними</t>
@@ -767,6 +563,37 @@
 8. Перейти за посиланням на соціальну мережу 'facebook.com'.
 9. Перевірити, відповідність сторінки що відкрилась.
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Посилання на адресу x https://x.com/i/flow/login?redirect_after_login=%2Ftelnyx
+2. Посилання на адресу linkedin https://www.linkedin.com/company/telnyx/
+3. Посилання на адресу facebook https://www.facebook.com/Telnyx/
+</t>
+  </si>
+  <si>
+    <t>Checking the activity of social media links and verifying their URLs</t>
+  </si>
+  <si>
+    <t>Check if the social media links are active and verify their addresses</t>
+  </si>
+  <si>
+    <t>1. Link to x: https://x.com/i/flow/login?redirect_after_login=%2Ftelnyx
+2. Link to LinkedIn: https://www.linkedin.com/company/telnyx/
+3. Link to Facebook: https://www.facebook.com/Telnyx/</t>
+  </si>
+  <si>
+    <t>The links are correct, addresses are active</t>
+  </si>
+  <si>
+    <t>1. Open the browser.
+2. Set the screen resolution to 1920 x 1080 pixels.
+3. Go to https://telnyx.com/.
+4. Follow the link to the social network ‘x.com’.
+5. Verify the page that opens.
+6. Follow the link to the social network ‘linkedin.com’.
+7. Verify the page that opens.
+8. Follow the link to the social network ‘facebook.com’.
+9. Verify the page that opens.</t>
   </si>
 </sst>
 </file>
@@ -824,11 +651,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1177,11 +1001,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3249E3F-1463-465D-89AE-258F32BB99DA}">
   <sheetPr codeName="Аркуш1"/>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1194,288 +1018,230 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="139.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="B9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="153" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="2" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="153" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1486,11 +1252,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BEDADF3-8687-434D-A3C7-F1B67BBC9909}">
   <sheetPr codeName="Аркуш2"/>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1504,262 +1270,212 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="B10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="B11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="B12" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="6"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="5"/>
     </row>
   </sheetData>
   <dataConsolidate/>

--- a/testsuite_telnyx.xlsx
+++ b/testsuite_telnyx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="ЦяКнига" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Disk_D\TEST_QA\23.09.24_cypress_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Disk_D\TEST_QA\23.09.24_cypress_test_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42987EB1-2E98-4CE2-A143-20C609330CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208FD070-E64E-4A98-9BA6-F73B4D3EB99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{65BB1E8D-FC1F-4BFB-92E2-9B728838C214}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{65BB1E8D-FC1F-4BFB-92E2-9B728838C214}"/>
   </bookViews>
   <sheets>
     <sheet name="ukr" sheetId="1" r:id="rId1"/>
@@ -166,24 +166,6 @@
  3.9. Log In;</t>
   </si>
   <si>
-    <t>1. Open the browser.
-2. Set the screen resolution to 1920 x 1080 px
-3. Go to https://telnyx.com/..
-4. Check for the display of the header.
-5. If the header is displayed, check for the display of the navigation panel elements: 
- 5. 1.Logo;
- 5. 2. Products;
- 5. 3. Solutions;
- 5. 4. Pricing;
- 5. 5. Why Telnyx;
- 5. 6. Resources;
- 5. 7. Developers;
- 5. 8.Shop;
- 5.9. Contact Us;
- 5.10. Log In;
- 5. 11. Sign Up;</t>
-  </si>
-  <si>
     <t>1. Відкрити браузер.
 2. Встановити розширення екрана 1280 х 800 px.
 3. Перейти на https://telnyx.com/ .
@@ -594,6 +576,24 @@
 7. Verify the page that opens.
 8. Follow the link to the social network ‘facebook.com’.
 9. Verify the page that opens.</t>
+  </si>
+  <si>
+    <t>1. Open the browser.
+2. Set the screen resolution to 1920 x 1080 px
+3. Go to https://telnyx.com/.
+4. Check for the display of the header.
+5. If the header is displayed, check for the display of the navigation panel elements: 
+ 5. 1.Logo;
+ 5. 2. Products;
+ 5. 3. Solutions;
+ 5. 4. Pricing;
+ 5. 5. Why Telnyx;
+ 5. 6. Resources;
+ 5. 7. Developers;
+ 5. 8.Shop;
+ 5.9. Contact Us;
+ 5.10. Log In;
+ 5. 11. Sign Up;</t>
   </si>
 </sst>
 </file>
@@ -1003,9 +1003,9 @@
   <sheetPr codeName="Аркуш1"/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1070,7 +1070,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1078,17 +1078,17 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -1096,142 +1096,142 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="139.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="153" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F13" s="5"/>
     </row>
@@ -1254,9 +1254,9 @@
   <sheetPr codeName="Аркуш2"/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1289,7 +1289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="214.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1322,7 +1322,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1330,17 +1330,17 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1348,119 +1348,119 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="13" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
